--- a/nyt_news_info.xlsx
+++ b/nyt_news_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,29 +473,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Goldman Sachs Sticks the Landing at End of Tumultuous Year</t>
+          <t>Where Textile Mills Thrived, Remnants Battle for Survival</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jan. 15</t>
+          <t>Jan. 20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The Wall Street bank earned $2 billion in the fourth quarter, beating expectations, after a period marked by management missteps.</t>
+          <t>Apparel makers in the Carolinas say trade policy must change because of a boom in tariff-free shipments to U.S. consumers from foreign manufacturers.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>David M. Solomon, the chief executive of Goldman Sachs, said the bank has adopted a “clear and simplified” strategy.</t>
+          <t>Cotton fields in front of Enfield Cotton Ginnery in Enfield, N.C., which cleans hundreds of bales of cotton for farmers in the surrounding community.</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>The Big Buzz at Davos: A.I., Ukraine, China, and the Middle East</t>
+          <t>Goldman Sachs Sticks the Landing at End of Tumultuous Year</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -516,19 +516,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C.E.O.s and world leaders gather in the Swiss Alps this year as war, trade risks and disruptive new technologies loom large.</t>
+          <t>The Wall Street bank earned $2 billion in the fourth quarter, beating expectations, after a period marked by management missteps.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The topics on the mind of attendees at this year’s World Economic Forum in Davos, Switzerland, include artificial intelligence, the war in Gaza and the future of Ukraine.</t>
+          <t>David M. Solomon, the chief executive of Goldman Sachs, said the bank has adopted a “clear and simplified” strategy.</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -539,22 +539,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Flush With Investment, New U.S. Factories Face a Familiar Challenge</t>
+          <t>The Big Buzz at Davos: A.I., Ukraine, China, and the Middle East</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jan. 14</t>
+          <t>Jan. 15</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Worries are growing in Washington that a flood of Chinese products could put new American investments in clean energy and high-tech factories at risk.</t>
+          <t>C.E.O.s and world leaders gather in the Swiss Alps this year as war, trade risks and disruptive new technologies loom large.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A solar panel factory in Perrysburg, Ohio. Some Biden administration officials are concerned that a flood of Chinese imports could threaten the survival of U.S. factories.</t>
+          <t>The topics on the mind of attendees at this year’s World Economic Forum in Davos, Switzerland, include artificial intelligence, the war in Gaza and the future of Ukraine.</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -572,22 +572,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Biggest U.S. Banks Earn Billions, Even After Insurance Bill</t>
+          <t>Flush With Investment, New U.S. Factories Face a Familiar Challenge</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jan. 11</t>
+          <t>Jan. 14</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JPMorgan Chase, Bank of America and Wells Fargo reported healthy quarterly profits. Citigroup said its ongoing restructuring would result in about 20,000 job cuts.</t>
+          <t>Worries are growing in Washington that a flood of Chinese products could put new American investments in clean energy and high-tech factories at risk.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">The chief executives, from left, Brian Moynihan of Bank of America, Jamie Dimon of JPMorgan Chase and Jane Fraser of Citigroup at a Senate hearing last month. </t>
+          <t>A solar panel factory in Perrysburg, Ohio. Some Biden administration officials are concerned that a flood of Chinese imports could threaten the survival of U.S. factories.</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -605,7 +605,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The Billionaires Spending a Fortune to Lure Scientists Away From Universities</t>
+          <t>Biggest U.S. Banks Earn Billions, Even After Insurance Bill</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -615,12 +615,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Arena BioWorks is promising big paydays to nearly 100 researchers from Harvard, M.I.T. and other prestigious institutions.</t>
+          <t>JPMorgan Chase, Bank of America and Wells Fargo reported healthy quarterly profits. Citigroup said its ongoing restructuring would result in about 20,000 job cuts.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Among the early backers of Arena BioWorks are Stephen Pagliuca, the Boston Celtics owner, far left; and Thomas Cahill, a Boston venture capitalist, second from right. Stuart Schreiber, far right, a longtime Harvard-affiliated researcher, quit to be Arena’s lead scientist; and J. Keith Joung, seated, is among Arena’s newest hires.</t>
+          <t xml:space="preserve">The chief executives, from left, Brian Moynihan of Bank of America, Jamie Dimon of JPMorgan Chase and Jane Fraser of Citigroup at a Senate hearing last month. </t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -638,22 +638,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bitcoin Heads to Wall Street. Now What?</t>
+          <t>The Billionaires Spending a Fortune to Lure Scientists Away From Universities</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jan. 10</t>
+          <t>Jan. 11</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A new kind of exchange-traded fund linked to the cryptocurrency could begin trading as soon as Thursday, and the investment world is buzzing.</t>
+          <t>Arena BioWorks is promising big paydays to nearly 100 researchers from Harvard, M.I.T. and other prestigious institutions.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Thanks to newly approved financial products, investors can soon trade Bitcoin on markets like the New York Stock Exchange.</t>
+          <t>Among the early backers of Arena BioWorks are Stephen Pagliuca, the Boston Celtics owner, far left; and Thomas Cahill, a Boston venture capitalist, second from right. Stuart Schreiber, far right, a longtime Harvard-affiliated researcher, quit to be Arena’s lead scientist; and J. Keith Joung, seated, is among Arena’s newest hires.</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -671,7 +671,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Top Natural Gas Producers Announce Multibillion-Dollar Merger</t>
+          <t>Bitcoin Heads to Wall Street. Now What?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -681,12 +681,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>The deal, between Chesapeake Energy and Southwestern Energy, would create one of the largest energy producers in the United States.</t>
+          <t>A new kind of exchange-traded fund linked to the cryptocurrency could begin trading as soon as Thursday, and the investment world is buzzing.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A Chesapeake Energy site in Douglas, Wyo. The company played a big role in helping the United States become a net exporter of natural gas.</t>
+          <t>Thanks to newly approved financial products, investors can soon trade Bitcoin on markets like the New York Stock Exchange.</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -704,7 +704,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Inflation Is Moderating, but Pressure Remains on Biden</t>
+          <t>Top Natural Gas Producers Announce Multibillion-Dollar Merger</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -714,12 +714,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Voters have taken a downbeat view of the economy because costs have remained stubbornly high.</t>
+          <t>The deal, between Chesapeake Energy and Southwestern Energy, would create one of the largest energy producers in the United States.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>President Biden speaking at his first campaign event of 2024, at a community college in Pennsylvania.</t>
+          <t>A Chesapeake Energy site in Douglas, Wyo. The company played a big role in helping the United States become a net exporter of natural gas.</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -737,22 +737,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A Hack of the S.E.C.’s Social Media Account Caused a Bitcoin Frenzy, Briefly</t>
+          <t>Inflation Is Moderating, but Pressure Remains on Biden</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jan. 8</t>
+          <t>Jan. 10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>The X account of the Securities and Exchange Commission announced the approval of an investment product linked to Bitcoin. It wasn’t true.</t>
+          <t>Voters have taken a downbeat view of the economy because costs have remained stubbornly high.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The U.S. Securities and Exchange Commission.</t>
+          <t>President Biden speaking at his first campaign event of 2024, at a community college in Pennsylvania.</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -770,22 +770,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Investors Bail on Boeing Following Max 9 Grounding</t>
+          <t>A Hack of the S.E.C.’s Social Media Account Caused a Bitcoin Frenzy, Briefly</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jan. 7</t>
+          <t>Jan. 8</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>The jet maker’s share price fell sharply in premarket trading on Monday after hundreds of flights were canceled and safety inspections resumed.</t>
+          <t>The X account of the Securities and Exchange Commission announced the approval of an investment product linked to Bitcoin. It wasn’t true.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Part of a Boeing 737 Max 9 operated by Alaska Airlines fell off in midair.</t>
+          <t>The U.S. Securities and Exchange Commission.</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -803,22 +803,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Writing Checks Can Be Risky. Here’s How to Protect Yourself.</t>
+          <t>Investors Bail on Boeing Following Max 9 Grounding</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jan. 6</t>
+          <t>Jan. 7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Should you keep a separate checking account for writing checks? Is there a specific pen you should use? We answer some reader questions.</t>
+          <t>The jet maker’s share price fell sharply in premarket trading on Monday after hundreds of flights were canceled and safety inspections resumed.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>image_name_not_found</t>
+          <t>Part of a Boeing 737 Max 9 operated by Alaska Airlines fell off in midair.</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -836,22 +836,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>What to Know About Boeing’s 737 Max 9 and the Alaska Airlines Grounding</t>
+          <t>Writing Checks Can Be Risky. Here’s How to Protect Yourself.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jan. 5</t>
+          <t>Jan. 6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Boeing faced new safety questions after an Alaska Airlines jet made an emergency landing when a hole opened in its fuselage in midair.</t>
+          <t>Should you keep a separate checking account for writing checks? Is there a specific pen you should use? We answer some reader questions.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>An Alaska Airlines Boeing 737 Max 9 aircraft in Seattle in 2021.</t>
+          <t>image_name_not_found</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -869,22 +869,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Xerox to Cut 15% of Its Work Force in the First Quarter of 2024</t>
+          <t>What to Know About Boeing’s 737 Max 9 and the Alaska Airlines Grounding</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jan. 2</t>
+          <t>Jan. 5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>The move is the printer maker’s latest as it tries to shift more toward its business services offerings.</t>
+          <t>Boeing faced new safety questions after an Alaska Airlines jet made an emergency landing when a hole opened in its fuselage in midair.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Xerox’s shares fell around 10 percent after the company announced it was cutting 15% of its work force.</t>
+          <t>An Alaska Airlines Boeing 737 Max 9 aircraft in Seattle in 2021.</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -902,33 +902,66 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Xerox to Cut 15% of Its Work Force in the First Quarter of 2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Jan. 2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>The move is the printer maker’s latest as it tries to shift more toward its business services offerings.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Xerox’s shares fell around 10 percent after the company announced it was cutting 15% of its work force.</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>image_14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Cheddar, the ‘CNBC for Millennials,’ Furloughs Workers</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Jan. 1</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>The “post-cable” news network said “unforeseen internal and external factors” caused the sudden work stoppage.</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>A Cheddar News interview at the New York Stock Exchange.</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>image_14</t>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>image_15</t>
         </is>
       </c>
     </row>
